--- a/data/pca/factorExposure/factorExposure_2009-05-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01734602983203403</v>
+        <v>-0.01673506667636063</v>
       </c>
       <c r="C2">
-        <v>-0.002030759704322458</v>
+        <v>0.001259859265192224</v>
       </c>
       <c r="D2">
-        <v>0.009876931004333183</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01027993272842626</v>
+      </c>
+      <c r="E2">
+        <v>0.003234983893619509</v>
+      </c>
+      <c r="F2">
+        <v>0.01204476841434906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08829438143689647</v>
+        <v>-0.09114385972728269</v>
       </c>
       <c r="C4">
-        <v>-0.02041529218405166</v>
+        <v>0.01572955884656878</v>
       </c>
       <c r="D4">
-        <v>0.07977692961610351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08328202636976437</v>
+      </c>
+      <c r="E4">
+        <v>0.02876559400514055</v>
+      </c>
+      <c r="F4">
+        <v>-0.03379255151214008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2.657338960660833e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>-6.739635224817647e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-0.0002056718016662898</v>
+      </c>
+      <c r="E5">
+        <v>0.0001525845057086482</v>
+      </c>
+      <c r="F5">
+        <v>7.72511738112369e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1553400688203384</v>
+        <v>-0.163166587075953</v>
       </c>
       <c r="C6">
-        <v>-0.03302688499318248</v>
+        <v>0.03158758143244698</v>
       </c>
       <c r="D6">
-        <v>-0.03350171774866278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02369922313237614</v>
+      </c>
+      <c r="E6">
+        <v>0.01425184891273563</v>
+      </c>
+      <c r="F6">
+        <v>-0.0392919846017257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05687958387058766</v>
+        <v>-0.05999987735221157</v>
       </c>
       <c r="C7">
-        <v>-0.001614183625040397</v>
+        <v>-0.001620190416389488</v>
       </c>
       <c r="D7">
-        <v>0.04713383725190853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05249815723875451</v>
+      </c>
+      <c r="E7">
+        <v>0.01324524859514295</v>
+      </c>
+      <c r="F7">
+        <v>-0.04882733071887692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05970790920458571</v>
+        <v>-0.05608697647041549</v>
       </c>
       <c r="C8">
-        <v>0.009584972335191348</v>
+        <v>-0.01171529160411545</v>
       </c>
       <c r="D8">
-        <v>0.02525447416801196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02976474011372838</v>
+      </c>
+      <c r="E8">
+        <v>0.01884390031218677</v>
+      </c>
+      <c r="F8">
+        <v>0.02839186015155858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06832772947947117</v>
+        <v>-0.070732345838895</v>
       </c>
       <c r="C9">
-        <v>-0.01608954425502322</v>
+        <v>0.01107648643906143</v>
       </c>
       <c r="D9">
-        <v>0.08197452577263824</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08621501876671328</v>
+      </c>
+      <c r="E9">
+        <v>0.026660029471348</v>
+      </c>
+      <c r="F9">
+        <v>-0.04963888472885903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08645327828387851</v>
+        <v>-0.08745904873000222</v>
       </c>
       <c r="C10">
-        <v>-0.01855132032482875</v>
+        <v>0.02287647858476744</v>
       </c>
       <c r="D10">
-        <v>-0.1678738182991729</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1591816142034294</v>
+      </c>
+      <c r="E10">
+        <v>-0.03429447935506125</v>
+      </c>
+      <c r="F10">
+        <v>0.05993441810375365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08896711389502183</v>
+        <v>-0.08578801820493451</v>
       </c>
       <c r="C11">
-        <v>-0.01752894296130126</v>
+        <v>0.01211135837593486</v>
       </c>
       <c r="D11">
-        <v>0.112740586437953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1187198316085376</v>
+      </c>
+      <c r="E11">
+        <v>0.05317983299985907</v>
+      </c>
+      <c r="F11">
+        <v>-0.02559012861251534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0966458571434545</v>
+        <v>-0.09066833830059538</v>
       </c>
       <c r="C12">
-        <v>-0.01634108297833082</v>
+        <v>0.01011799398440778</v>
       </c>
       <c r="D12">
-        <v>0.1199985961763489</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1344136345304985</v>
+      </c>
+      <c r="E12">
+        <v>0.05443318469928742</v>
+      </c>
+      <c r="F12">
+        <v>-0.03192084828778115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04504195888349782</v>
+        <v>-0.0442997286601086</v>
       </c>
       <c r="C13">
-        <v>-0.006950325426083917</v>
+        <v>0.003361316504736085</v>
       </c>
       <c r="D13">
-        <v>0.04810105444220925</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0552002370820439</v>
+      </c>
+      <c r="E13">
+        <v>0.001830937436397983</v>
+      </c>
+      <c r="F13">
+        <v>-0.004239305990216422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01879150263967268</v>
+        <v>-0.02242912326183691</v>
       </c>
       <c r="C14">
-        <v>-0.01494847081809128</v>
+        <v>0.01380984520245207</v>
       </c>
       <c r="D14">
-        <v>0.03109165879253531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03221402310610329</v>
+      </c>
+      <c r="E14">
+        <v>0.02111537312613277</v>
+      </c>
+      <c r="F14">
+        <v>-0.01203144517793762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03450409198395277</v>
+        <v>-0.03466453262749541</v>
       </c>
       <c r="C15">
-        <v>-0.007969390475864197</v>
+        <v>0.006185993968852616</v>
       </c>
       <c r="D15">
-        <v>0.04709519109411712</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04709911019538471</v>
+      </c>
+      <c r="E15">
+        <v>0.009680703895388571</v>
+      </c>
+      <c r="F15">
+        <v>-0.02981765128925693</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0727076621971028</v>
+        <v>-0.07056165405041186</v>
       </c>
       <c r="C16">
-        <v>-0.007340269975277018</v>
+        <v>0.001786248579969154</v>
       </c>
       <c r="D16">
-        <v>0.1164401872162256</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1296356990498256</v>
+      </c>
+      <c r="E16">
+        <v>0.06571869527350151</v>
+      </c>
+      <c r="F16">
+        <v>-0.02905990920471376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001346789850552596</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0004738298767843834</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.002347449952212597</v>
+      </c>
+      <c r="E17">
+        <v>0.001793270140245161</v>
+      </c>
+      <c r="F17">
+        <v>0.002003629092341714</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02582129298363508</v>
+        <v>-0.04401479238898604</v>
       </c>
       <c r="C18">
-        <v>0.001387505948707669</v>
+        <v>-0.001103382446843349</v>
       </c>
       <c r="D18">
-        <v>0.02306844913836886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01732974359957598</v>
+      </c>
+      <c r="E18">
+        <v>-0.002800970863766942</v>
+      </c>
+      <c r="F18">
+        <v>0.009675130840264726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06390858245077721</v>
+        <v>-0.06267119513916015</v>
       </c>
       <c r="C20">
-        <v>-0.005960115326208516</v>
+        <v>0.002124953738814459</v>
       </c>
       <c r="D20">
-        <v>0.07362758180915863</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0786863068084525</v>
+      </c>
+      <c r="E20">
+        <v>0.06390875083733095</v>
+      </c>
+      <c r="F20">
+        <v>-0.03114414656366561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04151395694608546</v>
+        <v>-0.04336194548435354</v>
       </c>
       <c r="C21">
-        <v>-0.01052404027296595</v>
+        <v>0.007747469357485139</v>
       </c>
       <c r="D21">
-        <v>0.03602781338081786</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03714517551121415</v>
+      </c>
+      <c r="E21">
+        <v>0.0050698815505794</v>
+      </c>
+      <c r="F21">
+        <v>0.02381538215485466</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03974258906011964</v>
+        <v>-0.04173771270582086</v>
       </c>
       <c r="C22">
-        <v>-0.001208087543222139</v>
+        <v>0.0008845446880628921</v>
       </c>
       <c r="D22">
-        <v>0.001428471566711072</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007659572797896969</v>
+      </c>
+      <c r="E22">
+        <v>0.03569072434491249</v>
+      </c>
+      <c r="F22">
+        <v>0.05176933706109185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03970512567687718</v>
+        <v>-0.04170633130661204</v>
       </c>
       <c r="C23">
-        <v>-0.001195482404929748</v>
+        <v>0.0008725134195545506</v>
       </c>
       <c r="D23">
-        <v>0.001446837146607154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007673333424111964</v>
+      </c>
+      <c r="E23">
+        <v>0.03572031540765484</v>
+      </c>
+      <c r="F23">
+        <v>0.0518243487245749</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07989096302023395</v>
+        <v>-0.07636952028328274</v>
       </c>
       <c r="C24">
-        <v>-0.00807604892728974</v>
+        <v>0.002603240925367216</v>
       </c>
       <c r="D24">
-        <v>0.1174028653333311</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1226759833670843</v>
+      </c>
+      <c r="E24">
+        <v>0.05270745711892195</v>
+      </c>
+      <c r="F24">
+        <v>-0.03179773528608552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08511576932201302</v>
+        <v>-0.0816346723535166</v>
       </c>
       <c r="C25">
-        <v>-0.01057410710782206</v>
+        <v>0.005617839402214268</v>
       </c>
       <c r="D25">
-        <v>0.1051703705049965</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1109770296771212</v>
+      </c>
+      <c r="E25">
+        <v>0.03592300847381595</v>
+      </c>
+      <c r="F25">
+        <v>-0.02834815405775296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05710639108233706</v>
+        <v>-0.06054909074588896</v>
       </c>
       <c r="C26">
-        <v>-0.01841685255469546</v>
+        <v>0.015223263705833</v>
       </c>
       <c r="D26">
-        <v>0.03713395828483981</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04621637242057015</v>
+      </c>
+      <c r="E26">
+        <v>0.03462217215970152</v>
+      </c>
+      <c r="F26">
+        <v>0.006565425293942263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1387985833759034</v>
+        <v>-0.1471432462870948</v>
       </c>
       <c r="C28">
-        <v>-0.01936657822398187</v>
+        <v>0.0265038418249641</v>
       </c>
       <c r="D28">
-        <v>-0.2599975333825342</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2555707161411682</v>
+      </c>
+      <c r="E28">
+        <v>-0.067473007512525</v>
+      </c>
+      <c r="F28">
+        <v>-0.003842806361956726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02512452523400657</v>
+        <v>-0.0277153555078995</v>
       </c>
       <c r="C29">
-        <v>-0.009642161174818713</v>
+        <v>0.008968816331450295</v>
       </c>
       <c r="D29">
-        <v>0.02966801007259732</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.02986577710180309</v>
+      </c>
+      <c r="E29">
+        <v>0.0173899054752862</v>
+      </c>
+      <c r="F29">
+        <v>0.01383585824785575</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05691033156218563</v>
+        <v>-0.05448631138681485</v>
       </c>
       <c r="C30">
-        <v>-0.007643006231537032</v>
+        <v>0.002765209651117051</v>
       </c>
       <c r="D30">
-        <v>0.07885944658524383</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08723230324673041</v>
+      </c>
+      <c r="E30">
+        <v>0.01405973894043049</v>
+      </c>
+      <c r="F30">
+        <v>-0.08149653286642387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05053986625349424</v>
+        <v>-0.05105740487663583</v>
       </c>
       <c r="C31">
-        <v>-0.018154385076131</v>
+        <v>0.0165723123940279</v>
       </c>
       <c r="D31">
-        <v>0.02215535160516308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02547581876203982</v>
+      </c>
+      <c r="E31">
+        <v>0.03053524981310436</v>
+      </c>
+      <c r="F31">
+        <v>0.001286884424172089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04644201485676507</v>
+        <v>-0.05084118605184502</v>
       </c>
       <c r="C32">
-        <v>-0.002436911963382634</v>
+        <v>-0.001060530605611705</v>
       </c>
       <c r="D32">
-        <v>0.02840828388939582</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03306936271099258</v>
+      </c>
+      <c r="E32">
+        <v>0.03560018827874764</v>
+      </c>
+      <c r="F32">
+        <v>-0.003363047430245459</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08900495545583444</v>
+        <v>-0.08928681097977488</v>
       </c>
       <c r="C33">
-        <v>-0.01402818816593761</v>
+        <v>0.008150274758169925</v>
       </c>
       <c r="D33">
-        <v>0.09234399726831206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1049156313470818</v>
+      </c>
+      <c r="E33">
+        <v>0.04993120522517627</v>
+      </c>
+      <c r="F33">
+        <v>-0.04394374576240889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06792124323166647</v>
+        <v>-0.06615019267537064</v>
       </c>
       <c r="C34">
-        <v>-0.01594040007592716</v>
+        <v>0.01101887434934651</v>
       </c>
       <c r="D34">
-        <v>0.09887875106186562</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1110427303365913</v>
+      </c>
+      <c r="E34">
+        <v>0.04039765486170893</v>
+      </c>
+      <c r="F34">
+        <v>-0.03653122101302132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02631822831941469</v>
+        <v>-0.02778573545747799</v>
       </c>
       <c r="C35">
-        <v>-0.004440076780189074</v>
+        <v>0.003925533950740757</v>
       </c>
       <c r="D35">
-        <v>0.0086311460926142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01158477599677782</v>
+      </c>
+      <c r="E35">
+        <v>0.01635714963627414</v>
+      </c>
+      <c r="F35">
+        <v>0.0001314566351796004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02396335711814558</v>
+        <v>-0.02842724577708825</v>
       </c>
       <c r="C36">
-        <v>-0.008586608966350655</v>
+        <v>0.007371212598094592</v>
       </c>
       <c r="D36">
-        <v>0.03816010190438827</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03993055564635099</v>
+      </c>
+      <c r="E36">
+        <v>0.02014842096977579</v>
+      </c>
+      <c r="F36">
+        <v>-0.01548411915267504</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002396952954554749</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007499293647533216</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.003220909224849032</v>
+      </c>
+      <c r="E37">
+        <v>0.000886279658863754</v>
+      </c>
+      <c r="F37">
+        <v>0.001225298315903211</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1085254570406461</v>
+        <v>-0.09784445589740635</v>
       </c>
       <c r="C39">
-        <v>-0.02345420564126676</v>
+        <v>0.01679404424620813</v>
       </c>
       <c r="D39">
-        <v>0.1511280456309979</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1529148483296754</v>
+      </c>
+      <c r="E39">
+        <v>0.06488438232460901</v>
+      </c>
+      <c r="F39">
+        <v>-0.02313378250068906</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03872276075372445</v>
+        <v>-0.04449812448192849</v>
       </c>
       <c r="C40">
-        <v>-0.009900691178451899</v>
+        <v>0.008729389010186772</v>
       </c>
       <c r="D40">
-        <v>0.02521355419039582</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03265324371905921</v>
+      </c>
+      <c r="E40">
+        <v>0.004544727510325476</v>
+      </c>
+      <c r="F40">
+        <v>0.01706181539823801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02508447823344281</v>
+        <v>-0.02752006575671033</v>
       </c>
       <c r="C41">
-        <v>-0.007951442819375565</v>
+        <v>0.00719267278083421</v>
       </c>
       <c r="D41">
-        <v>0.007997816518845251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0101354799932658</v>
+      </c>
+      <c r="E41">
+        <v>0.01401538780333552</v>
+      </c>
+      <c r="F41">
+        <v>0.007239308683375677</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04094042266343558</v>
+        <v>-0.03965057516950489</v>
       </c>
       <c r="C43">
-        <v>-0.008618048010102665</v>
+        <v>0.007943308534925713</v>
       </c>
       <c r="D43">
-        <v>0.01812977723238903</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0201314267698851</v>
+      </c>
+      <c r="E43">
+        <v>0.02844034610837326</v>
+      </c>
+      <c r="F43">
+        <v>0.01581515097133728</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06023252992986348</v>
+        <v>-0.07165400271024644</v>
       </c>
       <c r="C44">
-        <v>-0.02220622853918918</v>
+        <v>0.01855639217295372</v>
       </c>
       <c r="D44">
-        <v>0.09038103189405577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.08915725540049048</v>
+      </c>
+      <c r="E44">
+        <v>0.05434214393241138</v>
+      </c>
+      <c r="F44">
+        <v>-0.1689246600375222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>7.246544649573023e-06</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-7.922694581864838e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>2.010184190211962e-05</v>
+      </c>
+      <c r="E45">
+        <v>-4.138736137958528e-05</v>
+      </c>
+      <c r="F45">
+        <v>9.035541484973615e-05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02093532693085508</v>
+        <v>-0.02419433673244583</v>
       </c>
       <c r="C46">
-        <v>-0.004632736277299771</v>
+        <v>0.00355313310020285</v>
       </c>
       <c r="D46">
-        <v>0.01009731581883807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01367115337855193</v>
+      </c>
+      <c r="E46">
+        <v>0.0313958812720445</v>
+      </c>
+      <c r="F46">
+        <v>0.005467491652654696</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05379317333714457</v>
+        <v>-0.05322349305453455</v>
       </c>
       <c r="C47">
-        <v>-0.006436552122762974</v>
+        <v>0.005150238536415475</v>
       </c>
       <c r="D47">
-        <v>0.007001883015790957</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01141648825116826</v>
+      </c>
+      <c r="E47">
+        <v>0.02619830312717279</v>
+      </c>
+      <c r="F47">
+        <v>0.0305642563364537</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0480144119668993</v>
+        <v>-0.05144343334410627</v>
       </c>
       <c r="C48">
-        <v>-0.005670697492774431</v>
+        <v>0.002939936106565972</v>
       </c>
       <c r="D48">
-        <v>0.04863341633511813</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05153115085122521</v>
+      </c>
+      <c r="E48">
+        <v>-0.00205173638438697</v>
+      </c>
+      <c r="F48">
+        <v>-0.0133967150603041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1974344545550852</v>
+        <v>-0.1997189334950232</v>
       </c>
       <c r="C49">
-        <v>-0.02547278431851592</v>
+        <v>0.02301285758423878</v>
       </c>
       <c r="D49">
-        <v>-0.01032851771493406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004854875135594545</v>
+      </c>
+      <c r="E49">
+        <v>0.02772862414317253</v>
+      </c>
+      <c r="F49">
+        <v>-0.05022611865460684</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04890804473347335</v>
+        <v>-0.05145444532391101</v>
       </c>
       <c r="C50">
-        <v>-0.01383009502129746</v>
+        <v>0.01230687220315589</v>
       </c>
       <c r="D50">
-        <v>0.0221043478305481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02517626408576415</v>
+      </c>
+      <c r="E50">
+        <v>0.03326658860814259</v>
+      </c>
+      <c r="F50">
+        <v>-0.00963703443922095</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.154089721124153</v>
+        <v>-0.1471696889276623</v>
       </c>
       <c r="C52">
-        <v>-0.02334273364642184</v>
+        <v>0.0205644016961126</v>
       </c>
       <c r="D52">
-        <v>0.04267026582142109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04545524016715675</v>
+      </c>
+      <c r="E52">
+        <v>0.02195347073975456</v>
+      </c>
+      <c r="F52">
+        <v>-0.04162702341783745</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1751341553687614</v>
+        <v>-0.1685666623083455</v>
       </c>
       <c r="C53">
-        <v>-0.02526296048709803</v>
+        <v>0.02414233346818903</v>
       </c>
       <c r="D53">
-        <v>0.006043044024043978</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.008811843490673751</v>
+      </c>
+      <c r="E53">
+        <v>0.02854356819071045</v>
+      </c>
+      <c r="F53">
+        <v>-0.07543472923618177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01535226673840449</v>
+        <v>-0.01798172317641474</v>
       </c>
       <c r="C54">
-        <v>-0.01180093517904483</v>
+        <v>0.01084630955168002</v>
       </c>
       <c r="D54">
-        <v>0.02934547089393407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02841179063543215</v>
+      </c>
+      <c r="E54">
+        <v>0.02060204282163832</v>
+      </c>
+      <c r="F54">
+        <v>0.003013184047224713</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1187457538382704</v>
+        <v>-0.1162830311221598</v>
       </c>
       <c r="C55">
-        <v>-0.02179026652635821</v>
+        <v>0.02084238438528609</v>
       </c>
       <c r="D55">
-        <v>0.003025790092939307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01063646587887893</v>
+      </c>
+      <c r="E55">
+        <v>0.02677836426599408</v>
+      </c>
+      <c r="F55">
+        <v>-0.04672998422460214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1805876759728719</v>
+        <v>-0.1751091712286564</v>
       </c>
       <c r="C56">
-        <v>-0.02306454225098793</v>
+        <v>0.02222699062916739</v>
       </c>
       <c r="D56">
-        <v>-0.006549425535277624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0005594854419369938</v>
+      </c>
+      <c r="E56">
+        <v>0.03130785128766163</v>
+      </c>
+      <c r="F56">
+        <v>-0.05520077939378045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04423409855139</v>
+        <v>-0.04359540564706776</v>
       </c>
       <c r="C58">
-        <v>-0.004143372091769102</v>
+        <v>-0.0003926017579616325</v>
       </c>
       <c r="D58">
-        <v>0.0671141433222226</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07632570948893977</v>
+      </c>
+      <c r="E58">
+        <v>0.036416542720863</v>
+      </c>
+      <c r="F58">
+        <v>0.03515010133170701</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.163397800308669</v>
+        <v>-0.1697107300142217</v>
       </c>
       <c r="C59">
-        <v>-0.02091190038787255</v>
+        <v>0.02655702586164185</v>
       </c>
       <c r="D59">
-        <v>-0.220987876732858</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2155577361887036</v>
+      </c>
+      <c r="E59">
+        <v>-0.05261521171568428</v>
+      </c>
+      <c r="F59">
+        <v>0.04160839252423368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2358088261083857</v>
+        <v>-0.2278692322058226</v>
       </c>
       <c r="C60">
-        <v>-0.007017821604946276</v>
+        <v>0.002819113390547699</v>
       </c>
       <c r="D60">
-        <v>0.03662036046233286</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03877536772862893</v>
+      </c>
+      <c r="E60">
+        <v>-0.002056881919432928</v>
+      </c>
+      <c r="F60">
+        <v>-0.006507186744000477</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08010289018961421</v>
+        <v>-0.07416741076177297</v>
       </c>
       <c r="C61">
-        <v>-0.01735082965791104</v>
+        <v>0.01164045630607265</v>
       </c>
       <c r="D61">
-        <v>0.1129705164903493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1183990705062806</v>
+      </c>
+      <c r="E61">
+        <v>0.04364950595025683</v>
+      </c>
+      <c r="F61">
+        <v>-0.0103107056233003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1726267271667951</v>
+        <v>-0.168155190155038</v>
       </c>
       <c r="C62">
-        <v>-0.02654331053445728</v>
+        <v>0.02467317255084595</v>
       </c>
       <c r="D62">
-        <v>0.001113874095101598</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.008912884224872714</v>
+      </c>
+      <c r="E62">
+        <v>0.03438824951831938</v>
+      </c>
+      <c r="F62">
+        <v>-0.04216078120333082</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04289570821215175</v>
+        <v>-0.04666402576046109</v>
       </c>
       <c r="C63">
-        <v>-0.005912557906397495</v>
+        <v>0.002870721907651978</v>
       </c>
       <c r="D63">
-        <v>0.05182710581752902</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06177845436274418</v>
+      </c>
+      <c r="E63">
+        <v>0.02771163223845781</v>
+      </c>
+      <c r="F63">
+        <v>-0.001022086966881725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1151345791356901</v>
+        <v>-0.1120145964816342</v>
       </c>
       <c r="C64">
-        <v>-0.01863197511994324</v>
+        <v>0.01485974466751472</v>
       </c>
       <c r="D64">
-        <v>0.03514031475812332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04288703233582495</v>
+      </c>
+      <c r="E64">
+        <v>0.02806010939729171</v>
+      </c>
+      <c r="F64">
+        <v>-0.02690477375715946</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.147170578991495</v>
+        <v>-0.15425147031725</v>
       </c>
       <c r="C65">
-        <v>-0.03901911782894089</v>
+        <v>0.03838569578445552</v>
       </c>
       <c r="D65">
-        <v>-0.05370173888989182</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04301884800453702</v>
+      </c>
+      <c r="E65">
+        <v>0.00859697978035881</v>
+      </c>
+      <c r="F65">
+        <v>-0.03649554795652964</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.130492108103827</v>
+        <v>-0.1170301957459768</v>
       </c>
       <c r="C66">
-        <v>-0.0220040842222934</v>
+        <v>0.01490772780003955</v>
       </c>
       <c r="D66">
-        <v>0.1346343947894179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1426165412194748</v>
+      </c>
+      <c r="E66">
+        <v>0.06765534026584225</v>
+      </c>
+      <c r="F66">
+        <v>-0.02822489926213892</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06341229986207647</v>
+        <v>-0.05614812121721532</v>
       </c>
       <c r="C67">
-        <v>-0.007204864721360963</v>
+        <v>0.004700500658439936</v>
       </c>
       <c r="D67">
-        <v>0.05451683446868253</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05834952295516603</v>
+      </c>
+      <c r="E67">
+        <v>0.02524594408919134</v>
+      </c>
+      <c r="F67">
+        <v>0.03288357109106171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1120481425740164</v>
+        <v>-0.1209352660090944</v>
       </c>
       <c r="C68">
-        <v>-0.0290834891154217</v>
+        <v>0.03687487924292428</v>
       </c>
       <c r="D68">
-        <v>-0.2602954174240137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2571074667587803</v>
+      </c>
+      <c r="E68">
+        <v>-0.08853871828448741</v>
+      </c>
+      <c r="F68">
+        <v>-0.0005862282390786788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0393648643098682</v>
+        <v>-0.03878516109967711</v>
       </c>
       <c r="C69">
-        <v>-0.002906153505557046</v>
+        <v>0.001817482039606272</v>
       </c>
       <c r="D69">
-        <v>0.008825774783838057</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01010799540437441</v>
+      </c>
+      <c r="E69">
+        <v>0.02884112672286568</v>
+      </c>
+      <c r="F69">
+        <v>0.0006199683766834381</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06886868173900114</v>
+        <v>-0.06855252418904628</v>
       </c>
       <c r="C70">
-        <v>0.02307516343788631</v>
+        <v>-0.0254040337615626</v>
       </c>
       <c r="D70">
-        <v>0.02591079467859588</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.03043335800888179</v>
+      </c>
+      <c r="E70">
+        <v>-0.02067841170703936</v>
+      </c>
+      <c r="F70">
+        <v>0.1841779247246049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1303612528324189</v>
+        <v>-0.1410355051929119</v>
       </c>
       <c r="C71">
-        <v>-0.03403567093777467</v>
+        <v>0.04181030955073375</v>
       </c>
       <c r="D71">
-        <v>-0.2756878849713348</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2673012075020618</v>
+      </c>
+      <c r="E71">
+        <v>-0.09925178912276564</v>
+      </c>
+      <c r="F71">
+        <v>-0.004041149750059793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1369471371438485</v>
+        <v>-0.1436387223930878</v>
       </c>
       <c r="C72">
-        <v>-0.03060441265654813</v>
+        <v>0.03053896927858599</v>
       </c>
       <c r="D72">
-        <v>0.0006344022085536335</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.001747459221811215</v>
+      </c>
+      <c r="E72">
+        <v>0.04044606783994369</v>
+      </c>
+      <c r="F72">
+        <v>-0.02925214289484447</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2008554878972582</v>
+        <v>-0.2026887531195236</v>
       </c>
       <c r="C73">
-        <v>-0.02026556629085296</v>
+        <v>0.0160791657876067</v>
       </c>
       <c r="D73">
-        <v>0.01072750635450027</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0185799091979808</v>
+      </c>
+      <c r="E73">
+        <v>0.06345235455157457</v>
+      </c>
+      <c r="F73">
+        <v>-0.0451329595673648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08857977122033278</v>
+        <v>-0.08968733694937438</v>
       </c>
       <c r="C74">
-        <v>-0.01525235121107605</v>
+        <v>0.0141858147990373</v>
       </c>
       <c r="D74">
-        <v>0.01204560946896668</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01615295549466401</v>
+      </c>
+      <c r="E74">
+        <v>0.03983889300762273</v>
+      </c>
+      <c r="F74">
+        <v>-0.05199627051618985</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1324188905153802</v>
+        <v>-0.1245871027927054</v>
       </c>
       <c r="C75">
-        <v>-0.03359513587622852</v>
+        <v>0.03115333449568679</v>
       </c>
       <c r="D75">
-        <v>0.02421803698995595</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03107935388799118</v>
+      </c>
+      <c r="E75">
+        <v>0.05610233360831844</v>
+      </c>
+      <c r="F75">
+        <v>-0.02253329532448697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08054537476516203</v>
+        <v>-0.09156325625970416</v>
       </c>
       <c r="C77">
-        <v>-0.01506583517602852</v>
+        <v>0.009897351331983868</v>
       </c>
       <c r="D77">
-        <v>0.1149064630823213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1186105240543082</v>
+      </c>
+      <c r="E77">
+        <v>0.05130460372146655</v>
+      </c>
+      <c r="F77">
+        <v>-0.03525986870135685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09859242940491382</v>
+        <v>-0.09912362967359502</v>
       </c>
       <c r="C78">
-        <v>-0.0454700480894975</v>
+        <v>0.04116653826881773</v>
       </c>
       <c r="D78">
-        <v>0.1122716001568103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1105024445490145</v>
+      </c>
+      <c r="E78">
+        <v>0.07543345013656234</v>
+      </c>
+      <c r="F78">
+        <v>-0.05505851871540233</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1691520299812356</v>
+        <v>-0.1644786530138723</v>
       </c>
       <c r="C79">
-        <v>-0.02977910663176937</v>
+        <v>0.02773772220887112</v>
       </c>
       <c r="D79">
-        <v>0.008466217452692324</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0161523641971125</v>
+      </c>
+      <c r="E79">
+        <v>0.04837255149901017</v>
+      </c>
+      <c r="F79">
+        <v>-0.0136921168255305</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07973640336970325</v>
+        <v>-0.07869511765789844</v>
       </c>
       <c r="C80">
-        <v>-0.003556918601746496</v>
+        <v>0.0007983463998752664</v>
       </c>
       <c r="D80">
-        <v>0.05463858734082748</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05353859820544441</v>
+      </c>
+      <c r="E80">
+        <v>0.03814275536845441</v>
+      </c>
+      <c r="F80">
+        <v>0.02710524858745603</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1189422684764674</v>
+        <v>-0.1138659961715189</v>
       </c>
       <c r="C81">
-        <v>-0.03524834424017154</v>
+        <v>0.03409255341735894</v>
       </c>
       <c r="D81">
-        <v>0.005717808622385353</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01146989609085235</v>
+      </c>
+      <c r="E81">
+        <v>0.05074025144984124</v>
+      </c>
+      <c r="F81">
+        <v>-0.01883380515589522</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1647630946336574</v>
+        <v>-0.1633456045591731</v>
       </c>
       <c r="C82">
-        <v>-0.02943072874720063</v>
+        <v>0.02899805433411231</v>
       </c>
       <c r="D82">
-        <v>0.006598586147869072</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.005441105851547692</v>
+      </c>
+      <c r="E82">
+        <v>0.0245096517083809</v>
+      </c>
+      <c r="F82">
+        <v>-0.08430183606539735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05832644119838155</v>
+        <v>-0.05310827138617179</v>
       </c>
       <c r="C83">
-        <v>-0.005571647659917285</v>
+        <v>0.003449712793235775</v>
       </c>
       <c r="D83">
-        <v>0.03662517299338784</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03885957140106997</v>
+      </c>
+      <c r="E83">
+        <v>-0.001716388839567323</v>
+      </c>
+      <c r="F83">
+        <v>0.03579074014546657</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06025881744583647</v>
+        <v>-0.05551954793129697</v>
       </c>
       <c r="C84">
-        <v>-0.01421195159745638</v>
+        <v>0.01112536400200888</v>
       </c>
       <c r="D84">
-        <v>0.0758608447018497</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07759464743718703</v>
+      </c>
+      <c r="E84">
+        <v>0.01410602051624096</v>
+      </c>
+      <c r="F84">
+        <v>-0.01641677596252375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.140316720929086</v>
+        <v>-0.1351663136029612</v>
       </c>
       <c r="C85">
-        <v>-0.03321765398282031</v>
+        <v>0.03197589286368843</v>
       </c>
       <c r="D85">
-        <v>0.00686467874813592</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.01113947141944567</v>
+      </c>
+      <c r="E85">
+        <v>0.03679609210764874</v>
+      </c>
+      <c r="F85">
+        <v>-0.04927737902264697</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09943099333522723</v>
+        <v>-0.09108791597049291</v>
       </c>
       <c r="C86">
-        <v>0.001566260519698779</v>
+        <v>-0.005408827392970117</v>
       </c>
       <c r="D86">
-        <v>0.01335447903504655</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05033833030808758</v>
+      </c>
+      <c r="E86">
+        <v>0.2381311934100024</v>
+      </c>
+      <c r="F86">
+        <v>0.8925217159670045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09360719710141664</v>
+        <v>-0.09086493672999899</v>
       </c>
       <c r="C87">
-        <v>-0.02917935398177694</v>
+        <v>0.02120049818494311</v>
       </c>
       <c r="D87">
-        <v>0.0725892834678545</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09112850887041744</v>
+      </c>
+      <c r="E87">
+        <v>-0.05739681340529558</v>
+      </c>
+      <c r="F87">
+        <v>-0.04839502401938121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06278937834992257</v>
+        <v>-0.06131617977367888</v>
       </c>
       <c r="C88">
-        <v>-0.006640799153924313</v>
+        <v>0.003627775129628669</v>
       </c>
       <c r="D88">
-        <v>0.04953385713751381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.05036070140437836</v>
+      </c>
+      <c r="E88">
+        <v>0.02783101379443785</v>
+      </c>
+      <c r="F88">
+        <v>-0.01441012576211977</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1224967399317628</v>
+        <v>-0.1308957149025218</v>
       </c>
       <c r="C89">
-        <v>-0.00978419196628909</v>
+        <v>0.01705446260751304</v>
       </c>
       <c r="D89">
-        <v>-0.2366605354426722</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2391582951887027</v>
+      </c>
+      <c r="E89">
+        <v>-0.09050424014159164</v>
+      </c>
+      <c r="F89">
+        <v>0.008841586779021336</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1413893596321081</v>
+        <v>-0.1556981081259538</v>
       </c>
       <c r="C90">
-        <v>-0.02997912038981653</v>
+        <v>0.03848397969244556</v>
       </c>
       <c r="D90">
-        <v>-0.2620946564467896</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2650592871899021</v>
+      </c>
+      <c r="E90">
+        <v>-0.1171302617457056</v>
+      </c>
+      <c r="F90">
+        <v>0.0101691425078477</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1242841524317753</v>
+        <v>-0.1209022980627683</v>
       </c>
       <c r="C91">
-        <v>-0.02397744944610136</v>
+        <v>0.02336250407218261</v>
       </c>
       <c r="D91">
-        <v>-0.02019530516444659</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01486471801672627</v>
+      </c>
+      <c r="E91">
+        <v>0.05598628793185874</v>
+      </c>
+      <c r="F91">
+        <v>0.001189217048023318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1424935932105775</v>
+        <v>-0.1489918969314176</v>
       </c>
       <c r="C92">
-        <v>-0.02092373806080323</v>
+        <v>0.02949588659440129</v>
       </c>
       <c r="D92">
-        <v>-0.2903832125490368</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2896732651553082</v>
+      </c>
+      <c r="E92">
+        <v>-0.1041539073883266</v>
+      </c>
+      <c r="F92">
+        <v>0.02120841534495624</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1465128012743019</v>
+        <v>-0.1587371025797608</v>
       </c>
       <c r="C93">
-        <v>-0.02666595696426596</v>
+        <v>0.03379389846027996</v>
       </c>
       <c r="D93">
-        <v>-0.2594648766323254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.25873017924424</v>
+      </c>
+      <c r="E93">
+        <v>-0.07418784084766378</v>
+      </c>
+      <c r="F93">
+        <v>-0.004324297360436542</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1315693569034028</v>
+        <v>-0.1238393563116012</v>
       </c>
       <c r="C94">
-        <v>-0.02979694709793172</v>
+        <v>0.02677507343583883</v>
       </c>
       <c r="D94">
-        <v>0.03826711291909794</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04294225419928134</v>
+      </c>
+      <c r="E94">
+        <v>0.05723971672200214</v>
+      </c>
+      <c r="F94">
+        <v>-0.03324340742445962</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1256927345651128</v>
+        <v>-0.1284117491480614</v>
       </c>
       <c r="C95">
-        <v>-0.01182323957837353</v>
+        <v>0.006447409542666741</v>
       </c>
       <c r="D95">
-        <v>0.08946330168144717</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1002388234217926</v>
+      </c>
+      <c r="E95">
+        <v>0.06200651424491955</v>
+      </c>
+      <c r="F95">
+        <v>-0.005733811349803947</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1432829018055295</v>
+        <v>-0.1326491595569866</v>
       </c>
       <c r="C96">
-        <v>0.9839855907235274</v>
+        <v>-0.9843880605021755</v>
       </c>
       <c r="D96">
-        <v>-0.02438149692037106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05330563572709534</v>
+      </c>
+      <c r="E96">
+        <v>0.04735404967753092</v>
+      </c>
+      <c r="F96">
+        <v>-0.04331399871121801</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1877806624960392</v>
+        <v>-0.191614748645041</v>
       </c>
       <c r="C97">
-        <v>0.0007249677469388456</v>
+        <v>-0.00157442873932469</v>
       </c>
       <c r="D97">
-        <v>-0.03032135357285608</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.03191313522999328</v>
+      </c>
+      <c r="E97">
+        <v>0.03728706731862286</v>
+      </c>
+      <c r="F97">
+        <v>0.1180036774713634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1980545814395832</v>
+        <v>-0.2046170851449746</v>
       </c>
       <c r="C98">
-        <v>-0.01525349434468234</v>
+        <v>0.0108819583288882</v>
       </c>
       <c r="D98">
-        <v>0.0140829487662696</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01561342588775789</v>
+      </c>
+      <c r="E98">
+        <v>-0.080599406092267</v>
+      </c>
+      <c r="F98">
+        <v>0.09638603441666189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05657658448813091</v>
+        <v>-0.05605971364378109</v>
       </c>
       <c r="C99">
-        <v>0.001012772735910604</v>
+        <v>-0.003051852237031353</v>
       </c>
       <c r="D99">
-        <v>0.03593717311641463</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04146648877100794</v>
+      </c>
+      <c r="E99">
+        <v>0.02745708598034948</v>
+      </c>
+      <c r="F99">
+        <v>-0.002900589368000854</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.149680295638574</v>
+        <v>-0.1356195366949737</v>
       </c>
       <c r="C100">
-        <v>0.03419192508045966</v>
+        <v>-0.04642924398042771</v>
       </c>
       <c r="D100">
-        <v>0.4080350873266345</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3687462693549609</v>
+      </c>
+      <c r="E100">
+        <v>-0.8752428417935073</v>
+      </c>
+      <c r="F100">
+        <v>0.1651325828226981</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02512518920344809</v>
+        <v>-0.02776395765459113</v>
       </c>
       <c r="C101">
-        <v>-0.009645618946842344</v>
+        <v>0.008994442329382563</v>
       </c>
       <c r="D101">
-        <v>0.02921930886051186</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02943524445515688</v>
+      </c>
+      <c r="E101">
+        <v>0.01697689514522463</v>
+      </c>
+      <c r="F101">
+        <v>0.01516100727458849</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
